--- a/2021-X_ART.xlsx
+++ b/2021-X_ART.xlsx
@@ -68174,10 +68174,10 @@
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="a2d4d7f5-8d4f-4a27-8476-728e0fe10b50">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
-    <_dlc_DocId xmlns="7e1892ae-fd09-495d-8d62-eb752b86c4b1">53N6YZJ54D32-1111469682-792325</_dlc_DocId>
+    <_dlc_DocId xmlns="7e1892ae-fd09-495d-8d62-eb752b86c4b1">53N6YZJ54D32-1111469682-868546</_dlc_DocId>
     <_dlc_DocIdUrl xmlns="7e1892ae-fd09-495d-8d62-eb752b86c4b1">
-      <Url>https://imadis.sharepoint.com/sites/Intranet/_layouts/15/DocIdRedir.aspx?ID=53N6YZJ54D32-1111469682-792325</Url>
-      <Description>53N6YZJ54D32-1111469682-792325</Description>
+      <Url>https://imadis.sharepoint.com/sites/Intranet/_layouts/15/DocIdRedir.aspx?ID=53N6YZJ54D32-1111469682-868546</Url>
+      <Description>53N6YZJ54D32-1111469682-868546</Description>
     </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
